--- a/webtocaseViewpackage.xlsx
+++ b/webtocaseViewpackage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Url should be launched</t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
   <si>
     <t>2</t>
@@ -858,9 +861,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,13 +985,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K22" totalsRowShown="0">
-  <autoFilter ref="A1:K22">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K22"/>
   <tableColumns count="11">
     <tableColumn id="1" name="TestScenarioID" dataDxfId="0"/>
     <tableColumn id="2" name="TestCaseID" dataDxfId="1"/>
@@ -1293,7 +1291,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I2" sqref="I2:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1365,101 +1363,125 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" hidden="1" spans="6:8">
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="6:9">
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" hidden="1" spans="6:8">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="6:9">
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" hidden="1" spans="6:8">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="6:9">
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" hidden="1" spans="6:8">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="6:9">
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" hidden="1" spans="6:8">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9">
       <c r="F7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="6:8">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9">
       <c r="F8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" hidden="1" spans="6:8">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="6:9">
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" hidden="1" spans="6:8">
+        <v>37</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="6:9">
       <c r="F10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" hidden="1" spans="6:8">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="6:9">
       <c r="F11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -1467,126 +1489,162 @@
       <c r="H11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" hidden="1" spans="6:8">
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="6:9">
       <c r="F12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" hidden="1" spans="6:8">
+        <v>44</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="6:9">
       <c r="F13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" hidden="1" spans="6:8">
+        <v>47</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="6:9">
       <c r="F14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" hidden="1" spans="6:8">
+        <v>50</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="6:9">
       <c r="F15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" hidden="1" spans="6:8">
+        <v>53</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="6:9">
       <c r="F16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9">
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9">
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9">
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9">
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" hidden="1" spans="6:8">
-      <c r="F17" t="s">
+      <c r="H21" t="s">
         <v>56</v>
       </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" hidden="1" spans="6:8">
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" hidden="1" spans="6:8">
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" hidden="1" spans="6:8">
-      <c r="F20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" hidden="1" spans="6:8">
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" hidden="1" spans="6:8">
+      <c r="I21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9">
       <c r="F22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
